--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5366310311091252</v>
+        <v>0.537691799692685</v>
       </c>
       <c r="E2">
-        <v>0.5366310311091252</v>
+        <v>0.537691799692685</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.008336412541424029</v>
+        <v>0.008298101627418562</v>
       </c>
       <c r="E3">
-        <v>0.008336412541424029</v>
+        <v>0.008298101627418562</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.027322233193965E-05</v>
+        <v>1.052450147654965E-05</v>
       </c>
       <c r="E4">
-        <v>1.027322233193965E-05</v>
+        <v>1.052450147654965E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.07125187442203694</v>
+        <v>0.07155001002993018</v>
       </c>
       <c r="E5">
-        <v>0.07125187442203694</v>
+        <v>0.07155001002993018</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9266609356980534</v>
+        <v>0.926531823764956</v>
       </c>
       <c r="E6">
-        <v>0.9266609356980534</v>
+        <v>0.926531823764956</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9719868807448507</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.02801311925514927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.975226056358665</v>
+        <v>0.107023546700823</v>
       </c>
       <c r="E8">
-        <v>0.02477394364133501</v>
+        <v>0.8929764532991771</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9745236106181335</v>
+        <v>0.04280406929257809</v>
       </c>
       <c r="E9">
-        <v>0.02547638938186647</v>
+        <v>0.9571959307074219</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9743067115314996</v>
+        <v>5.433649152542796E-06</v>
       </c>
       <c r="E10">
-        <v>0.02569328846850039</v>
+        <v>0.9999945663508475</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9740198094998093</v>
+        <v>0.9999901441969345</v>
       </c>
       <c r="E11">
-        <v>0.02598019050019074</v>
+        <v>9.85580306545053E-06</v>
       </c>
       <c r="F11">
-        <v>0.3595850765705109</v>
+        <v>2.097374677658081</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6767004252316263</v>
+        <v>0.6818550405123067</v>
       </c>
       <c r="E12">
-        <v>0.6767004252316263</v>
+        <v>0.6818550405123067</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.2298545845021157</v>
+        <v>0.2296225764641644</v>
       </c>
       <c r="E13">
-        <v>0.2298545845021157</v>
+        <v>0.2296225764641644</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2.118611854342184E-09</v>
+        <v>2.222882800240327E-09</v>
       </c>
       <c r="E14">
-        <v>2.118611854342184E-09</v>
+        <v>2.222882800240327E-09</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.00247861567191527</v>
+        <v>0.002509176330194134</v>
       </c>
       <c r="E15">
-        <v>0.00247861567191527</v>
+        <v>0.002509176330194134</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9423147622043677</v>
+        <v>0.9425429279696622</v>
       </c>
       <c r="E16">
-        <v>0.9423147622043677</v>
+        <v>0.9425429279696622</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9974854529131354</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.002514547086864605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9977640805511332</v>
+        <v>3.01669996619711E-08</v>
       </c>
       <c r="E18">
-        <v>0.002235919448866808</v>
+        <v>0.9999999698330003</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9978796275775625</v>
+        <v>0.02019003278735198</v>
       </c>
       <c r="E19">
-        <v>0.002120372422437455</v>
+        <v>0.979809967212648</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9978855745687354</v>
+        <v>2.742611859183358E-09</v>
       </c>
       <c r="E20">
-        <v>0.00211442543126461</v>
+        <v>0.9999999972573882</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.997425402866954</v>
+        <v>0.9999999732107685</v>
       </c>
       <c r="E21">
-        <v>0.002574597133045975</v>
+        <v>2.678923149979084E-08</v>
       </c>
       <c r="F21">
-        <v>0.4257159829139709</v>
+        <v>4.51987886428833</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
